--- a/lab4/Lab4_test-keysy.xlsx
+++ b/lab4/Lab4_test-keysy.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="64">
   <si>
     <t>Ожидаемый результат</t>
   </si>
@@ -144,9 +144,6 @@
     <t>3.перейти на стр мероприятия</t>
   </si>
   <si>
-    <t>видить все картинки</t>
-  </si>
-  <si>
     <t>ничего не видим</t>
   </si>
   <si>
@@ -187,6 +184,33 @@
   </si>
   <si>
     <t>4. Узнать у него все ли лицензировано</t>
+  </si>
+  <si>
+    <t>все картинки отображаются</t>
+  </si>
+  <si>
+    <t>Внутренние ссылки работают на всех страницах.</t>
+  </si>
+  <si>
+    <t>Иконки социальных сетей при регистрации работают правильно.</t>
+  </si>
+  <si>
+    <t>2. Нажать на кнопку "Вход"</t>
+  </si>
+  <si>
+    <t>открывается окошко авторизации</t>
+  </si>
+  <si>
+    <t>3.нажать иконку вконтакте</t>
+  </si>
+  <si>
+    <t>переводитьна авторизацию через "вконтакте"</t>
+  </si>
+  <si>
+    <t>4. ввести пароль и логин от вашей соц сети и нажать кнопку "вход"</t>
+  </si>
+  <si>
+    <t>авторизирует через соц сеть в контакте и перекидывает обратно на сайт relaxup.ru уже с авторизацией</t>
   </si>
 </sst>
 </file>
@@ -344,7 +368,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -413,12 +437,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -430,6 +448,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -495,7 +522,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -547,7 +574,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -741,7 +768,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -749,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F40"/>
+  <dimension ref="A2:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,10 +794,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -833,10 +860,10 @@
       <c r="B11" s="20"/>
     </row>
     <row r="12" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
+      <c r="A12" s="33">
         <v>1</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -853,8 +880,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="23" t="s">
         <v>34</v>
       </c>
@@ -869,8 +896,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="21" t="s">
         <v>36</v>
       </c>
@@ -885,8 +912,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="21" t="s">
         <v>16</v>
       </c>
@@ -910,10 +937,10 @@
       <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27">
+      <c r="A18" s="33">
         <v>2</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="21" t="s">
@@ -930,10 +957,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>25</v>
@@ -946,8 +973,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="26" t="s">
         <v>28</v>
       </c>
@@ -969,10 +996,10 @@
       <c r="B22" s="16"/>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
+      <c r="A23" s="33">
         <v>3</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="34" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="22" t="s">
@@ -989,8 +1016,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="22" t="s">
         <v>31</v>
       </c>
@@ -1005,8 +1032,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="22" t="s">
         <v>17</v>
       </c>
@@ -1035,10 +1062,10 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27">
+      <c r="A29" s="33">
         <v>4</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="34" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="22" t="s">
@@ -1055,63 +1082,63 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="22" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="F30" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="30" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="22" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="F31" s="28" t="s">
         <v>42</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>43</v>
+      <c r="F32" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C33" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>43</v>
+      <c r="F33" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1131,11 +1158,11 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27">
+      <c r="A36" s="33">
         <v>5</v>
       </c>
-      <c r="B36" s="29" t="s">
-        <v>50</v>
+      <c r="B36" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>23</v>
@@ -1151,10 +1178,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
-      <c r="B37" s="29"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>25</v>
@@ -1167,40 +1194,227 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="E38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="33"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="D39" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="33">
+        <v>6</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="33"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="33"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="33"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="27"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D45" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="33">
+        <v>7</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="33"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="33"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="33"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A48:A51"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B36:B39"/>

--- a/lab4/Lab4_test-keysy.xlsx
+++ b/lab4/Lab4_test-keysy.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>Ожидаемый результат</t>
   </si>
@@ -168,28 +168,10 @@
     <t>5.использовать все остальные девайсы, повторить шаги</t>
   </si>
   <si>
-    <t>Права на иллюстрации, шрифт и другой контент лицензированы и/ или отмечены ссылкой.</t>
-  </si>
-  <si>
-    <t>все легально</t>
-  </si>
-  <si>
     <t>2. Навести курсор на "о нас" и нажать на эту кнопку</t>
   </si>
   <si>
-    <t>3.Позвонить по телефону указанному на этой стр</t>
-  </si>
-  <si>
-    <t>трубку взяли ответил человек</t>
-  </si>
-  <si>
-    <t>4. Узнать у него все ли лицензировано</t>
-  </si>
-  <si>
     <t>все картинки отображаются</t>
-  </si>
-  <si>
-    <t>Внутренние ссылки работают на всех страницах.</t>
   </si>
   <si>
     <t>Иконки социальных сетей при регистрации работают правильно.</t>
@@ -368,7 +350,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -410,9 +392,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -450,10 +429,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -768,7 +747,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -776,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F53"/>
+  <dimension ref="A2:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,10 +773,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -857,16 +836,16 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
+      <c r="B11" s="19"/>
     </row>
     <row r="12" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
+      <c r="A12" s="31">
         <v>1</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -880,9 +859,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="32"/>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -896,9 +875,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="32"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -912,9 +891,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="32"/>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -928,22 +907,22 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="24"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="25"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="14"/>
       <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33">
+      <c r="A18" s="31">
         <v>2</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -957,10 +936,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="26" t="s">
-        <v>51</v>
+      <c r="C19" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>25</v>
@@ -973,9 +952,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="32"/>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -996,13 +975,13 @@
       <c r="B22" s="16"/>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+      <c r="A23" s="31">
         <v>3</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -1016,15 +995,15 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="22" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>33</v>
       </c>
       <c r="F24" s="11" t="s">
@@ -1032,15 +1011,15 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="22" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="11" t="s">
@@ -1051,7 +1030,7 @@
       <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="20"/>
+      <c r="B27" s="19"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
@@ -1062,13 +1041,13 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
+      <c r="A29" s="31">
         <v>4</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -1082,62 +1061,62 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="22" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="22" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="21" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="27" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1158,16 +1137,16 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="33">
+      <c r="A36" s="31">
         <v>5</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E36" s="7" t="s">
@@ -1178,48 +1157,48 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="32"/>
-      <c r="C37" s="26" t="s">
-        <v>51</v>
+      <c r="C37" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="33"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="32"/>
-      <c r="C38" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>53</v>
+      <c r="C38" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="33"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>50</v>
+      <c r="C39" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>11</v>
@@ -1241,191 +1220,19 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="33">
-        <v>6</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="33"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="33"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="33"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="33">
-        <v>7</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="33"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="33"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="33"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B12:B15"/>
+  <mergeCells count="11">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B36:B39"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A36:A39"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B12:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
